--- a/data/trans_bre/P38B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4735350794832928</v>
+        <v>-0.3011956416520716</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3640359900699672</v>
+        <v>0.7035170888357725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.469573729433082</v>
+        <v>1.354570919710733</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.005503754698301051</v>
+        <v>-0.003477295012764948</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.004785306386804519</v>
+        <v>0.008569627148467431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01719800399882132</v>
+        <v>0.01539749721167893</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.108779076278027</v>
+        <v>7.295296947711212</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.970342588973844</v>
+        <v>8.145066223976812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.197251598046577</v>
+        <v>9.210136942770941</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.08769802298616929</v>
+        <v>0.08992199002555028</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09807346137974779</v>
+        <v>0.1013263285824882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1109742615989841</v>
+        <v>0.1107212206824054</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>8.66390275626927</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.130304984933677</v>
+        <v>7.130304984933689</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.06222015938015577</v>
@@ -709,7 +709,7 @@
         <v>0.1055173258724683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0923347812226471</v>
+        <v>0.09233478122264724</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.857564825436936</v>
+        <v>1.85167647580132</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.616441260939823</v>
+        <v>5.420291519523839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.242269514686353</v>
+        <v>3.246645764105559</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02207689807084143</v>
+        <v>0.02248781614604529</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06705156529501939</v>
+        <v>0.06463853712227227</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04102204437512456</v>
+        <v>0.04101034966931275</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.452114154704718</v>
+        <v>8.423638738013675</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.80412917873027</v>
+        <v>11.54328452242864</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.90384182394828</v>
+        <v>10.85752661401917</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1072387801432629</v>
+        <v>0.1071174989848613</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1480506858495626</v>
+        <v>0.1446998505116096</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1457140635530052</v>
+        <v>0.1458969411802679</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>6.883390401201095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.631674676509748</v>
+        <v>7.631674676509759</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.08455398024453967</v>
@@ -791,7 +791,7 @@
         <v>0.08473685067641297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0971718045666549</v>
+        <v>0.09717180456665504</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.520684025327127</v>
+        <v>3.52869371972027</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.301336876463411</v>
+        <v>3.287314985911782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.437325021579841</v>
+        <v>3.215900265690437</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.04094925312597842</v>
+        <v>0.04135449528493013</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03950492016966514</v>
+        <v>0.03994428759268456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02944998824435835</v>
+        <v>0.03975125617862673</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.51128775508155</v>
+        <v>10.61245079264653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.7132220341413</v>
+        <v>10.48609236287337</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.38447442742992</v>
+        <v>12.51666300581824</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1283964637488011</v>
+        <v>0.1319539236951798</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1373846230677018</v>
+        <v>0.1335409507367317</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1640348904016433</v>
+        <v>0.1666414001535441</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.305539255080329</v>
+        <v>3.144058471261419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.138937514333744</v>
+        <v>-1.331512883994226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.44321828247373</v>
+        <v>3.176158044505371</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04024313088138235</v>
+        <v>0.03728770892513877</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01368415815203572</v>
+        <v>-0.01599033947678015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02991239100013204</v>
+        <v>0.03906516787401695</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.823726389450954</v>
+        <v>9.946259085612922</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.778962711823439</v>
+        <v>6.117738378778406</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.57082546167105</v>
+        <v>10.51015991530427</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1249333641963294</v>
+        <v>0.1251421736905504</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07332447972319642</v>
+        <v>0.07774410710476062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1385752608782632</v>
+        <v>0.1378305890875706</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>5.528879244371332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.74969857906329</v>
+        <v>6.749698579063268</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.06880489795594479</v>
@@ -955,7 +955,7 @@
         <v>0.06752553712363897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08442583959439919</v>
+        <v>0.08442583959439891</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.822235163658252</v>
+        <v>3.958319423139148</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.682490563491718</v>
+        <v>3.813436025778911</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.707858724778492</v>
+        <v>4.663410294850764</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.04593505209612632</v>
+        <v>0.04793818287260231</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04448436487536517</v>
+        <v>0.04576039963489213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05794402862994943</v>
+        <v>0.05682959931742888</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.248481695829005</v>
+        <v>7.350157703737533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.333518766950855</v>
+        <v>7.164668384737667</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.942575318884739</v>
+        <v>9.066295070450204</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.09022404484884089</v>
+        <v>0.09103301008648959</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09072346460237621</v>
+        <v>0.08890000477091599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1133569629689775</v>
+        <v>0.1147898699180058</v>
       </c>
     </row>
     <row r="19">
